--- a/OnBoard/output/trust/catch/Catch_Trust_65.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_65.xlsx
@@ -1679,7 +1679,7 @@
         <v>0.008</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I32">
         <v>19.9244</v>
@@ -1761,7 +1761,7 @@
         <v>0.002</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I34">
         <v>19.9244</v>
@@ -2089,7 +2089,7 @@
         <v>0.6820000000000001</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I42">
         <v>19.9244</v>
@@ -2171,7 +2171,7 @@
         <v>0.021</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I44">
         <v>19.9244</v>
